--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2015932.482306923</v>
+        <v>-2018651.883451169</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.19039300819541</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>296.5915142922412</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.36610313819172</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>62.30414838069019</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>162.801541041483</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>172.9992438935368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>93.89254046638139</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6.192676426089649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>180.5760018108581</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>17.72897864480372</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>60.10263430740896</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>23.9583643276541</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>11.56087338713413</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>258.4213586456705</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>140.575894358866</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2773,13 +2773,13 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860056</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.78477319198</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.78477319198</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.78477319198</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>350.8341747419841</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.78477319198</v>
+        <v>736.6224273402283</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925522</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1677.224245322481</v>
+        <v>1443.082764731814</v>
       </c>
       <c r="C4" t="n">
-        <v>1508.288062394575</v>
+        <v>1274.146581803907</v>
       </c>
       <c r="D4" t="n">
-        <v>1358.171422982239</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="E4" t="n">
-        <v>1210.258329399846</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>1063.368381901936</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="G4" t="n">
-        <v>1063.368381901936</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="H4" t="n">
-        <v>1063.368381901936</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
         <v>1002.60916787878</v>
@@ -4504,34 +4504,34 @@
         <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>2205.07143370985</v>
       </c>
       <c r="W4" t="n">
-        <v>2307.654840194269</v>
+        <v>1915.65426367289</v>
       </c>
       <c r="X4" t="n">
-        <v>2079.665289296251</v>
+        <v>1687.664712774872</v>
       </c>
       <c r="Y4" t="n">
-        <v>1858.872710152721</v>
+        <v>1624.731229562054</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.246750862032</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>531.4162778577429</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.593301929726</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y5" t="n">
-        <v>1635.846590926153</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>455.9574707874393</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>146.0877365340449</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>146.0877365340449</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1630.190891361276</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1341.072553865113</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1086.388065659226</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1086.388065659226</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>858.3985147612092</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>637.6059356176791</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.111199477248</v>
+        <v>1342.972143346163</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.111199477248</v>
+        <v>974.0096264057515</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8455008704973</v>
+        <v>615.7439277990011</v>
       </c>
       <c r="E8" t="n">
-        <v>895.8455008704973</v>
+        <v>615.7439277990011</v>
       </c>
       <c r="F8" t="n">
-        <v>484.8595960808897</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>69.15484580517858</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>69.15484580517858</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.111199477248</v>
+        <v>1342.972143346163</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.0018823909471</v>
+        <v>874.5512797486884</v>
       </c>
       <c r="C10" t="n">
-        <v>666.0018823909471</v>
+        <v>705.6150968207816</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786114</v>
+        <v>555.4984574084458</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>407.5853638260527</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>260.6954163281423</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>260.6954163281423</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>111.9565181916485</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1612.245752066766</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1323.127414570604</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1068.442926364717</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>1068.442926364717</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.442926364717</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.6503472211868</v>
+        <v>1056.199744578928</v>
       </c>
     </row>
     <row r="11">
@@ -5027,37 +5027,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6443,70 +6443,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,31 +6856,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7397,46 +7397,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,40 +7567,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7813,40 +7813,40 @@
         <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,28 +8058,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>105.1672460959151</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-4.702717623307975e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>320.4185868622027</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>110.2845314494703</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.38852247060547</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>134.873089259435</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>27.76311574357368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-2.945804527247846e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287324</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642839</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="E2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="L2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642837</v>
@@ -26353,7 +26353,7 @@
         <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36246.7770349372</v>
+        <v>36246.77703493727</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731939</v>
+      </c>
+      <c r="F4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8117.31242673198</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.31242673198</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>16108.17168982545</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.1716898255</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="L4" t="n">
+        <v>16108.17168982542</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16108.17168982544</v>
+      </c>
+      <c r="N4" t="n">
         <v>16108.17168982545</v>
       </c>
-      <c r="M4" t="n">
-        <v>16108.17168982545</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>16108.17168982543</v>
       </c>
-      <c r="O4" t="n">
-        <v>16108.17168982539</v>
-      </c>
       <c r="P4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1179014.510727829</v>
+        <v>-1179444.069594417</v>
       </c>
       <c r="C6" t="n">
+        <v>-145151.5957152801</v>
+      </c>
+      <c r="D6" t="n">
         <v>-145151.59571528</v>
       </c>
-      <c r="D6" t="n">
-        <v>-145151.5957152801</v>
-      </c>
       <c r="E6" t="n">
-        <v>-536010.6239061842</v>
+        <v>-536045.36183162</v>
       </c>
       <c r="F6" t="n">
-        <v>-28525.18228163848</v>
+        <v>-28559.92020707416</v>
       </c>
       <c r="G6" t="n">
-        <v>-28525.18228163848</v>
+        <v>-28559.92020707417</v>
       </c>
       <c r="H6" t="n">
-        <v>-28525.18228163848</v>
+        <v>-28559.92020707419</v>
       </c>
       <c r="I6" t="n">
-        <v>-28525.18228163848</v>
+        <v>-28559.92020707422</v>
       </c>
       <c r="J6" t="n">
         <v>-224201.0063609268</v>
       </c>
       <c r="K6" t="n">
-        <v>-37168.11055731255</v>
+        <v>-37168.11055731248</v>
       </c>
       <c r="L6" t="n">
-        <v>-37168.11055731244</v>
+        <v>-37168.11055731242</v>
       </c>
       <c r="M6" t="n">
-        <v>-169775.4042862391</v>
+        <v>-169775.4042862392</v>
       </c>
       <c r="N6" t="n">
         <v>-37168.11055731247</v>
       </c>
       <c r="O6" t="n">
-        <v>-56595.82855094422</v>
+        <v>-56595.8285509442</v>
       </c>
       <c r="P6" t="n">
-        <v>-37168.11055731248</v>
+        <v>-37168.11055731247</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203968</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>39.32139020186361</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.32139020186503</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>19.43049206570885</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>156.2805049714046</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>244.0745047002284</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>213.2386947625168</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>53.35896868874748</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>214.5560195711223</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>226.3000439308533</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47.98093402766678</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>44.69396089649161</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>196.7903316695578</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N18" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>440.5919280920381</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N18" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317795</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
